--- a/NEW HR/MERCADO, RENGIE MENDOZA.xlsx
+++ b/NEW HR/MERCADO, RENGIE MENDOZA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC04B2F-773B-4771-8BC7-9152AD39B984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF30707-9103-4D8F-8FF8-4C31B422845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,14 +671,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -688,9 +691,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,6 +707,27 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -760,27 +781,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -2665,15 +2665,15 @@
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
-      <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="0">
+      <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="3">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3006,8 +3006,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A69" activePane="bottomLeft"/>
-      <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="K77" sqref="K77"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3037,14 +3037,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3055,14 +3055,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3075,16 +3075,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3110,18 +3110,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3178,7 +3178,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4523,9 +4523,7 @@
       <c r="A76" s="40">
         <v>44927</v>
       </c>
-      <c r="B76" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="B76" s="20"/>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
@@ -4536,14 +4534,10 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H76" s="39">
-        <v>1</v>
-      </c>
+      <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="49">
-        <v>44945</v>
-      </c>
+      <c r="K76" s="49"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
@@ -5233,17 +5227,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5279,9 +5273,9 @@
   <dimension ref="A2:K96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A43" activePane="bottomLeft"/>
-      <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="3696" topLeftCell="A49" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5311,14 +5305,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5329,14 +5323,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5349,16 +5343,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5384,18 +5378,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5446,13 +5440,13 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>27.167000000000002</v>
+        <v>71.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5469,7 +5463,7 @@
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H10" s="39"/>
@@ -5490,9 +5484,9 @@
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H11" s="39">
         <v>1</v>
@@ -5514,9 +5508,9 @@
       <c r="D12" s="39"/>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G12" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H12" s="39">
         <v>2</v>
@@ -5538,9 +5532,9 @@
       <c r="D13" s="39"/>
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G13" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H13" s="39">
         <v>2</v>
@@ -5562,9 +5556,9 @@
       <c r="D14" s="39"/>
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G14" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H14" s="39">
         <v>1</v>
@@ -5584,9 +5578,9 @@
       <c r="D15" s="43"/>
       <c r="E15" s="9"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G15" s="42">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H15" s="43">
         <v>2</v>
@@ -5610,9 +5604,9 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G16" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="9"/>
@@ -5632,9 +5626,9 @@
       <c r="D17" s="39"/>
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G17" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H17" s="39">
         <v>1</v>
@@ -5656,9 +5650,9 @@
       <c r="D18" s="39"/>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G18" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H18" s="39">
         <v>2</v>
@@ -5680,9 +5674,9 @@
       <c r="D19" s="39"/>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G19" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H19" s="39">
         <v>1</v>
@@ -5702,9 +5696,9 @@
       <c r="D20" s="39"/>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H20" s="39">
         <v>1</v>
@@ -5726,9 +5720,9 @@
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="39">
         <v>1</v>
@@ -5748,9 +5742,9 @@
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
@@ -5769,7 +5763,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H23" s="39"/>
@@ -5788,9 +5782,9 @@
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H24" s="39">
         <v>3</v>
@@ -5812,9 +5806,9 @@
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
@@ -5836,9 +5830,9 @@
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
@@ -5858,9 +5852,9 @@
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
@@ -5880,9 +5874,9 @@
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G28" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H28" s="39">
         <v>1</v>
@@ -5902,9 +5896,9 @@
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H29" s="39">
         <v>1</v>
@@ -5926,9 +5920,9 @@
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G30" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H30" s="39">
         <v>1</v>
@@ -5948,9 +5942,9 @@
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H31" s="39">
         <v>7</v>
@@ -5972,9 +5966,9 @@
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H32" s="39">
         <v>1</v>
@@ -5994,9 +5988,9 @@
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G33" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H33" s="39">
         <v>2</v>
@@ -6018,9 +6012,9 @@
       <c r="D34" s="39"/>
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G34" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H34" s="39">
         <v>1</v>
@@ -6042,9 +6036,9 @@
       <c r="D35" s="39"/>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G35" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H35" s="39">
         <v>1</v>
@@ -6065,7 +6059,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H36" s="39">
@@ -6088,9 +6082,9 @@
       <c r="D37" s="39"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G37" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H37" s="39">
         <v>1</v>
@@ -6110,9 +6104,9 @@
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H38" s="39">
         <v>1</v>
@@ -6134,9 +6128,9 @@
       <c r="D39" s="39"/>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
@@ -6154,9 +6148,9 @@
       <c r="D40" s="39"/>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G40" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H40" s="39">
         <v>2</v>
@@ -6176,9 +6170,9 @@
       <c r="D41" s="39"/>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
@@ -6196,9 +6190,9 @@
       <c r="D42" s="39"/>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
@@ -6218,9 +6212,9 @@
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G43" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
@@ -6240,9 +6234,9 @@
       <c r="D44" s="39"/>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G44" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H44" s="39">
         <v>1</v>
@@ -6262,9 +6256,9 @@
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G45" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H45" s="39">
         <v>1</v>
@@ -6284,9 +6278,9 @@
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H46" s="39">
         <v>4</v>
@@ -6308,9 +6302,9 @@
       <c r="D47" s="39"/>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G47" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H47" s="39">
         <v>1</v>
@@ -6332,9 +6326,9 @@
       <c r="D48" s="39"/>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G48" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H48" s="39">
         <v>1</v>
@@ -6357,7 +6351,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H49" s="39">
@@ -6378,10 +6372,7 @@
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G50" s="13"/>
       <c r="H50" s="39">
         <v>1</v>
       </c>
@@ -6400,10 +6391,7 @@
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G51" s="13"/>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
@@ -6420,10 +6408,7 @@
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G52" s="13"/>
       <c r="H52" s="39">
         <v>1</v>
       </c>
@@ -6444,10 +6429,7 @@
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G53" s="13"/>
       <c r="H53" s="39">
         <v>1</v>
       </c>
@@ -6468,10 +6450,7 @@
       <c r="D54" s="39"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G54" s="13"/>
       <c r="H54" s="39">
         <v>1</v>
       </c>
@@ -6492,10 +6471,7 @@
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G55" s="13"/>
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
@@ -6512,10 +6488,7 @@
       <c r="D56" s="39"/>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G56" s="13"/>
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
@@ -6532,10 +6505,7 @@
       <c r="D57" s="39"/>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G57" s="13"/>
       <c r="H57" s="39">
         <v>2</v>
       </c>
@@ -6546,20 +6516,25 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H58" s="39"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="39">
+        <v>1</v>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
+      <c r="K58" s="49">
+        <v>44945</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
@@ -6568,10 +6543,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G59" s="13"/>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
@@ -6584,10 +6556,7 @@
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G60" s="13"/>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
@@ -6600,10 +6569,7 @@
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G61" s="13"/>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
@@ -6616,10 +6582,7 @@
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G62" s="13"/>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
@@ -6632,10 +6595,7 @@
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G63" s="13"/>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
@@ -6648,10 +6608,7 @@
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G64" s="13"/>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
@@ -6664,10 +6621,7 @@
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G65" s="13"/>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
@@ -6680,10 +6634,7 @@
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G66" s="13"/>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
@@ -6696,10 +6647,7 @@
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G67" s="13"/>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
@@ -6712,10 +6660,7 @@
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G68" s="13"/>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
@@ -6728,10 +6673,7 @@
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G69" s="13"/>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
@@ -6744,10 +6686,7 @@
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G70" s="13"/>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
@@ -6760,10 +6699,7 @@
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G71" s="13"/>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
@@ -6776,10 +6712,7 @@
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G72" s="13"/>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
@@ -6792,10 +6725,7 @@
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G73" s="13"/>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
@@ -6808,10 +6738,7 @@
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G74" s="13"/>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
@@ -6824,10 +6751,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G75" s="13"/>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
@@ -6840,10 +6764,7 @@
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G76" s="13"/>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
@@ -6856,10 +6777,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G77" s="13"/>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
@@ -6872,10 +6790,7 @@
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G78" s="13"/>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
@@ -6888,10 +6803,7 @@
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G79" s="13"/>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
@@ -6904,10 +6816,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G80" s="13"/>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
@@ -6920,10 +6829,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G81" s="13"/>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
@@ -6936,10 +6842,7 @@
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G82" s="13"/>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
@@ -6952,10 +6855,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G83" s="13"/>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
@@ -6968,10 +6868,7 @@
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G84" s="13"/>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
@@ -6984,10 +6881,7 @@
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G85" s="13"/>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
@@ -7000,10 +6894,7 @@
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G86" s="13"/>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
@@ -7016,10 +6907,7 @@
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G87" s="13"/>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
@@ -7032,10 +6920,7 @@
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G88" s="13"/>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
@@ -7048,10 +6933,7 @@
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G89" s="13"/>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
@@ -7064,10 +6946,7 @@
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G90" s="13"/>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
@@ -7080,10 +6959,7 @@
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G91" s="13"/>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
@@ -7096,10 +6972,7 @@
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G92" s="13"/>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
@@ -7112,10 +6985,7 @@
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G93" s="13"/>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
@@ -7128,10 +6998,7 @@
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G94" s="13"/>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
@@ -7144,10 +7011,7 @@
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G95" s="13"/>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
@@ -7160,10 +7024,7 @@
       <c r="D96" s="43"/>
       <c r="E96" s="9"/>
       <c r="F96" s="15"/>
-      <c r="G96" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G96" s="13"/>
       <c r="H96" s="43"/>
       <c r="I96" s="9"/>
       <c r="J96" s="12"/>

--- a/NEW HR/MERCADO, RENGIE MENDOZA.xlsx
+++ b/NEW HR/MERCADO, RENGIE MENDOZA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF30707-9103-4D8F-8FF8-4C31B422845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -292,7 +291,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -671,17 +670,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -691,6 +687,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,27 +706,6 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -781,6 +759,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1221,7 +1220,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1263,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1327,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1387,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1454,7 +1453,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1517,7 +1516,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1615,7 +1614,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1673,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,7 +1738,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1781,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1857,7 +1856,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2042,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2108,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2166,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2232,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2289,7 +2288,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2363,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,7 +2406,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2472,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2528,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,25 +2624,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K116" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K116" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2655,25 +2654,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K96" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K96" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="0">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="3">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2980,7 +2979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2990,7 +2989,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2998,34 +2997,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A69" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="I79" sqref="I79"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3037,16 +3036,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3055,16 +3054,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3075,18 +3074,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3094,7 +3093,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3107,24 +3106,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3159,7 +3158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3168,7 +3167,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3178,12 +3177,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3205,7 +3204,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3225,7 +3224,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3245,7 +3244,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="49"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3265,7 +3264,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3285,7 +3284,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3305,7 +3304,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="49"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3325,7 +3324,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3345,7 +3344,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3365,7 +3364,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="49"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3385,7 +3384,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3405,7 +3404,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3425,7 +3424,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="49"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3451,7 +3450,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>58</v>
       </c>
@@ -3469,7 +3468,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3489,7 +3488,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3509,7 +3508,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3529,7 +3528,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3549,7 +3548,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3569,7 +3568,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3589,7 +3588,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="49"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3609,7 +3608,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3629,7 +3628,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3649,7 +3648,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3669,7 +3668,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="49"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3689,7 +3688,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3713,7 +3712,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="49"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>72</v>
       </c>
@@ -3731,7 +3730,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3751,7 +3750,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="49"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3771,7 +3770,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3791,7 +3790,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="49"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3811,7 +3810,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3831,7 +3830,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3851,7 +3850,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="49"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3871,7 +3870,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3891,7 +3890,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="49"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3911,7 +3910,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3931,7 +3930,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3951,7 +3950,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3975,7 +3974,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>77</v>
       </c>
@@ -3993,7 +3992,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4013,7 +4012,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4033,7 +4032,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4053,7 +4052,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4073,7 +4072,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4093,7 +4092,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4113,7 +4112,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4133,7 +4132,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4153,7 +4152,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4173,7 +4172,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4193,7 +4192,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4213,7 +4212,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4237,7 +4236,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>78</v>
       </c>
@@ -4255,7 +4254,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4275,7 +4274,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4295,7 +4294,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4315,7 +4314,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4335,7 +4334,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4355,7 +4354,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4375,7 +4374,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="49"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4395,7 +4394,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4415,7 +4414,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4435,7 +4434,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="49"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4455,7 +4454,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4475,7 +4474,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4501,7 +4500,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>81</v>
       </c>
@@ -4519,7 +4518,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4539,7 +4538,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="49"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4559,25 +4558,27 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
@@ -4595,7 +4596,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45047</v>
       </c>
@@ -4613,7 +4614,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45078</v>
       </c>
@@ -4631,7 +4632,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45108</v>
       </c>
@@ -4649,7 +4650,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45139</v>
       </c>
@@ -4667,7 +4668,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45170</v>
       </c>
@@ -4685,7 +4686,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45200</v>
       </c>
@@ -4703,7 +4704,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45231</v>
       </c>
@@ -4721,7 +4722,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45261</v>
       </c>
@@ -4739,7 +4740,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45292</v>
       </c>
@@ -4757,7 +4758,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45323</v>
       </c>
@@ -4775,7 +4776,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45352</v>
       </c>
@@ -4793,7 +4794,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45383</v>
       </c>
@@ -4811,7 +4812,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45413</v>
       </c>
@@ -4829,7 +4830,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45444</v>
       </c>
@@ -4847,7 +4848,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45474</v>
       </c>
@@ -4865,7 +4866,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45505</v>
       </c>
@@ -4883,7 +4884,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45536</v>
       </c>
@@ -4901,7 +4902,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45566</v>
       </c>
@@ -4919,7 +4920,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45597</v>
       </c>
@@ -4937,7 +4938,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4953,7 +4954,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4969,7 +4970,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4985,7 +4986,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5001,7 +5002,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5017,7 +5018,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5033,7 +5034,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5049,7 +5050,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5065,7 +5066,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5081,7 +5082,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5097,7 +5098,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5113,7 +5114,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5129,7 +5130,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5145,7 +5146,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5161,7 +5162,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5177,7 +5178,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5193,7 +5194,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5209,7 +5210,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="15"/>
       <c r="C116" s="42"/>
@@ -5227,23 +5228,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5266,34 +5267,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A49" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5305,16 +5306,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5323,16 +5324,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5343,18 +5344,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5362,7 +5363,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5375,24 +5376,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5446,12 +5447,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>71.167000000000002</v>
+        <v>69.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5473,7 +5474,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43132</v>
       </c>
@@ -5497,7 +5498,7 @@
         <v>43139</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43160</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43191</v>
       </c>
@@ -5545,7 +5546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43221</v>
       </c>
@@ -5569,7 +5570,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="15" t="s">
         <v>47</v>
@@ -5591,7 +5592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43313</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43344</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43405</v>
       </c>
@@ -5687,7 +5688,7 @@
         <v>43427</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>46</v>
@@ -5709,7 +5710,7 @@
         <v>43416</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43435</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>56</v>
@@ -5753,7 +5754,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>58</v>
       </c>
@@ -5771,7 +5772,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43525</v>
       </c>
@@ -5795,7 +5796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43556</v>
       </c>
@@ -5817,7 +5818,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43586</v>
       </c>
@@ -5841,7 +5842,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>64</v>
@@ -5863,7 +5864,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43617</v>
       </c>
@@ -5887,7 +5888,7 @@
         <v>43623</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>46</v>
@@ -5909,7 +5910,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -5933,7 +5934,7 @@
         <v>43664</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>66</v>
@@ -5955,7 +5956,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43678</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>47</v>
@@ -6001,7 +6002,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43709</v>
       </c>
@@ -6025,7 +6026,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43739</v>
       </c>
@@ -6049,7 +6050,7 @@
         <v>43759</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>47</v>
@@ -6071,7 +6072,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -6095,7 +6096,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>46</v>
@@ -6117,7 +6118,7 @@
         <v>43797</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43800</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>47</v>
@@ -6161,7 +6162,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>72</v>
       </c>
@@ -6179,7 +6180,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43831</v>
       </c>
@@ -6201,7 +6202,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43862</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43891</v>
       </c>
@@ -6247,7 +6248,7 @@
         <v>43903</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>46</v>
@@ -6269,7 +6270,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>75</v>
@@ -6291,7 +6292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43983</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>44012</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44044</v>
       </c>
@@ -6339,7 +6340,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44075</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>46</v>
@@ -6382,7 +6383,7 @@
         <v>44098</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>78</v>
       </c>
@@ -6397,7 +6398,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44682</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44713</v>
       </c>
@@ -6439,7 +6440,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44805</v>
       </c>
@@ -6460,7 +6461,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44896</v>
       </c>
@@ -6479,7 +6480,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>81</v>
       </c>
@@ -6494,7 +6495,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44927</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44927</v>
       </c>
@@ -6536,33 +6537,49 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
-      <c r="B59" s="20"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C59" s="13"/>
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
       <c r="G59" s="13"/>
-      <c r="H59" s="39"/>
+      <c r="H59" s="39">
+        <v>1</v>
+      </c>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
-      <c r="B60" s="20"/>
+      <c r="K59" s="49">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
       <c r="G60" s="13"/>
-      <c r="H60" s="39"/>
+      <c r="H60" s="39">
+        <v>1</v>
+      </c>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="49">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6575,7 +6592,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6588,7 +6605,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6601,7 +6618,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6614,7 +6631,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6627,7 +6644,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6640,7 +6657,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6653,7 +6670,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6666,7 +6683,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6679,7 +6696,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6692,7 +6709,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6705,7 +6722,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6718,7 +6735,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6731,7 +6748,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6744,7 +6761,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6757,7 +6774,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6770,7 +6787,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6783,7 +6800,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6796,7 +6813,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -6809,7 +6826,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -6822,7 +6839,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -6835,7 +6852,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -6848,7 +6865,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6861,7 +6878,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -6874,7 +6891,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -6887,7 +6904,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -6900,7 +6917,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -6913,7 +6930,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -6926,7 +6943,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6939,7 +6956,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6952,7 +6969,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6965,7 +6982,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6978,7 +6995,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6991,7 +7008,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7004,7 +7021,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7017,7 +7034,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="15"/>
       <c r="C96" s="42"/>
@@ -7045,10 +7062,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7071,28 +7088,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7105,7 +7122,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7134,7 +7151,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>99.748000000000005</v>
       </c>
@@ -7158,17 +7175,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7189,7 +7206,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7216,7 +7233,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7242,7 +7259,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7268,7 +7285,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7294,7 +7311,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7320,7 +7337,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7346,7 +7363,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7372,7 +7389,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7398,7 +7415,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7418,7 +7435,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7438,7 +7455,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7458,7 +7475,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7479,7 +7496,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7500,7 +7517,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7521,7 +7538,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7542,7 +7559,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7563,7 +7580,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7584,7 +7601,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7605,7 +7622,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7626,7 +7643,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7647,7 +7664,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7668,7 +7685,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7689,7 +7706,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7710,7 +7727,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7731,7 +7748,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7752,7 +7769,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7773,7 +7790,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7794,7 +7811,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7815,7 +7832,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7836,7 +7853,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7857,7 +7874,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7878,7 +7895,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7887,7 +7904,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7896,7 +7913,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7905,7 +7922,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7914,7 +7931,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7923,7 +7940,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7932,7 +7949,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7941,7 +7958,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7950,7 +7967,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7959,7 +7976,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7968,7 +7985,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7977,7 +7994,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7986,7 +8003,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7995,7 +8012,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8004,7 +8021,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8013,7 +8030,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8022,7 +8039,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8031,7 +8048,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8040,7 +8057,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8049,7 +8066,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8058,7 +8075,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8067,7 +8084,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8076,7 +8093,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8085,7 +8102,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8094,7 +8111,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8103,7 +8120,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8112,7 +8129,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8121,7 +8138,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8130,7 +8147,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8139,7 +8156,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/MERCADO, RENGIE MENDOZA.xlsx
+++ b/NEW HR/MERCADO, RENGIE MENDOZA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>1/3,4/2023</t>
+  </si>
+  <si>
+    <t>3/23,27,30/2023</t>
+  </si>
+  <si>
+    <t>4/3,13,17/2023</t>
   </si>
 </sst>
 </file>
@@ -670,14 +676,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -687,9 +696,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,7 +1226,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1269,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1333,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1393,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1459,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1522,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1620,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1679,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1744,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1787,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1862,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2048,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2114,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2172,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2238,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2294,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2369,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2412,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2478,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2534,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2660,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K96" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K97" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -3036,14 +3042,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3054,14 +3060,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3074,16 +3080,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3109,18 +3115,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5228,17 +5234,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5271,12 +5277,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K96"/>
+  <dimension ref="A2:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5306,14 +5312,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5324,14 +5330,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5344,16 +5350,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5379,18 +5385,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5447,7 +5453,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>69.167000000000002</v>
+        <v>63.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6581,29 +6587,43 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
-      <c r="B61" s="20"/>
+      <c r="B61" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
       <c r="G61" s="13"/>
-      <c r="H61" s="39"/>
+      <c r="H61" s="39">
+        <v>3</v>
+      </c>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="49" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13"/>
-      <c r="H62" s="39"/>
+      <c r="H62" s="39">
+        <v>3</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
+      <c r="K62" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
@@ -7035,17 +7055,30 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="41"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="43"/>
+      <c r="A96" s="40"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="39"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="15"/>
+      <c r="F96" s="20"/>
       <c r="G96" s="13"/>
-      <c r="H96" s="43"/>
+      <c r="H96" s="39"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="15"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="20"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="41"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/NEW HR/MERCADO, RENGIE MENDOZA.xlsx
+++ b/NEW HR/MERCADO, RENGIE MENDOZA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>4/3,13,17/2023</t>
+  </si>
+  <si>
+    <t>ML(41-0-0)</t>
+  </si>
+  <si>
+    <t>5/22/2023 - 7/30/2023</t>
   </si>
 </sst>
 </file>
@@ -676,17 +682,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -696,6 +699,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1226,7 +1232,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1275,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1333,7 +1339,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1399,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,7 +1465,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1528,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1626,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1685,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1744,7 +1750,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1787,7 +1793,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1868,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2048,7 +2054,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2120,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2178,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2238,7 +2244,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2294,7 +2300,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2375,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2418,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2484,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2534,7 +2540,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3042,14 +3048,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3060,14 +3066,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3080,16 +3086,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3115,18 +3121,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5234,17 +5240,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5282,7 +5288,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5312,14 +5318,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5330,14 +5336,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5350,16 +5356,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5385,18 +5391,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6626,8 +6632,12 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
@@ -6636,7 +6646,9 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
+      <c r="K63" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>

--- a/NEW HR/MERCADO, RENGIE MENDOZA.xlsx
+++ b/NEW HR/MERCADO, RENGIE MENDOZA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
   <si>
     <t>PERIOD</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>5/22/2023 - 7/30/2023</t>
+  </si>
+  <si>
+    <t>7/26-28/2023</t>
   </si>
 </sst>
 </file>
@@ -682,14 +685,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -699,9 +705,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,7 +1235,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1278,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1342,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1402,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1468,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1531,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1629,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1688,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1753,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1796,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1871,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2057,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2123,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2181,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2247,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2303,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2378,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2421,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2487,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2543,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,10 +3018,10 @@
   </sheetPr>
   <dimension ref="A2:K116"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,14 +3051,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3066,14 +3069,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3086,16 +3089,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3121,18 +3124,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3179,7 +3182,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3189,7 +3192,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4595,13 +4598,15 @@
         <v>45017</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4613,13 +4618,15 @@
         <v>45047</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4631,13 +4638,15 @@
         <v>45078</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4649,13 +4658,15 @@
         <v>45108</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -5240,17 +5251,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5285,10 +5296,10 @@
   </sheetPr>
   <dimension ref="A2:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
+      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5318,14 +5329,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5336,14 +5347,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5356,16 +5367,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5391,18 +5402,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5459,7 +5470,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63.167000000000002</v>
+        <v>60.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6651,17 +6662,25 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
       <c r="G64" s="13"/>
-      <c r="H64" s="39"/>
+      <c r="H64" s="39">
+        <v>3</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="20"/>
+      <c r="K64" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>

--- a/NEW HR/MERCADO, RENGIE MENDOZA.xlsx
+++ b/NEW HR/MERCADO, RENGIE MENDOZA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>7/26-28/2023</t>
+  </si>
+  <si>
+    <t>8/3,7/2023</t>
+  </si>
+  <si>
+    <t>8/31, 9/4/2023</t>
   </si>
 </sst>
 </file>
@@ -685,17 +691,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -705,6 +708,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1235,7 +1241,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1284,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1348,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1408,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1474,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1531,7 +1537,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,7 +1635,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1694,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1753,7 +1759,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1796,7 +1802,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1877,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2057,7 +2063,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2129,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,7 +2187,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2253,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2309,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,7 +2384,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2427,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2493,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2543,7 +2549,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3018,10 +3024,10 @@
   </sheetPr>
   <dimension ref="A2:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+      <selection pane="bottomLeft" activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,14 +3057,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3069,14 +3075,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3089,16 +3095,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3124,18 +3130,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3182,7 +3188,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3192,7 +3198,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4678,13 +4684,15 @@
         <v>45139</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -5251,17 +5259,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5296,10 +5304,10 @@
   </sheetPr>
   <dimension ref="A2:K97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
+      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5329,14 +5337,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5347,14 +5355,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5367,16 +5375,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5402,18 +5410,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5470,7 +5478,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>60.167000000000002</v>
+        <v>53.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6683,69 +6691,103 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="39"/>
+      <c r="H65" s="39">
+        <v>2</v>
+      </c>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C66" s="13"/>
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13"/>
-      <c r="H66" s="39"/>
+      <c r="H66" s="39">
+        <v>1</v>
+      </c>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
+      <c r="K66" s="49">
+        <v>45152</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13"/>
-      <c r="H67" s="39"/>
+      <c r="H67" s="39">
+        <v>2</v>
+      </c>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
+      <c r="K67" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13"/>
-      <c r="H68" s="39"/>
+      <c r="H68" s="39">
+        <v>1</v>
+      </c>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
+      <c r="K68" s="49">
+        <v>45160</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="20"/>
+      <c r="A69" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13"/>
-      <c r="H69" s="39"/>
+      <c r="H69" s="39">
+        <v>1</v>
+      </c>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="20"/>
+      <c r="K69" s="49">
+        <v>45176</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
